--- a/biology/Botanique/Banksia_gardneri/Banksia_gardneri.xlsx
+++ b/biology/Botanique/Banksia_gardneri/Banksia_gardneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia gardneri est une espèce d'arbuste rampant du genre Banksia. On le trouve dans les régions côtières au sud de l'Australie-Occidentale.
 </t>
@@ -511,9 +523,11 @@
           <t>Nom scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a d'abord été nommé Banksia prostrata, mais Alex George a découvert que le nom était illégal car il était déjà un synonyme valide de  Pimelia prostrata. Il a abandonné sa règle de ne jamais nommer à des plantes le nom de gens et lui a donna le nom de Charles Gardner en l'honneur de son travail sur les Banksias [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a d'abord été nommé Banksia prostrata, mais Alex George a découvert que le nom était illégal car il était déjà un synonyme valide de  Pimelia prostrata. Il a abandonné sa règle de ne jamais nommer à des plantes le nom de gens et lui a donna le nom de Charles Gardner en l'honneur de son travail sur les Banksias .
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste rampant à croissance lente, à tiges épaisses horizontale et Feuilles verticales à peu près triangulaire lobées atteignant jusqu'à 40 cm de haut (bien que généralement moins) et de 2 à 6 cm de large. La épis floraux brun roux sont cylindriques avec des styles crème, rarement noirs. La floraison a lieu en fin de printemps. Il est lignotubéreux et se régénère par repousse après un incendie.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse dans le sable ou le gravier entre Denmark et Hopetoun.
 </t>
@@ -604,7 +622,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Trois sous-espèces sont reconnues:
 B. g. gardneri
@@ -637,9 +657,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B. g. gardneri est un arbuste à croissance lente mais assez facile à cultiver. Il est moins vigoureux que Banksia blechnifolia  ou Banksia petiolaris. Les graines ne nécessitent aucun traitement et demandent 19 à 64 jours pour lever. [2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B. g. gardneri est un arbuste à croissance lente mais assez facile à cultiver. Il est moins vigoureux que Banksia blechnifolia  ou Banksia petiolaris. Les graines ne nécessitent aucun traitement et demandent 19 à 64 jours pour lever. 
 </t>
         </is>
       </c>
